--- a/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
+++ b/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="751">
   <si>
     <t>一、线状花材</t>
   </si>
@@ -930,6 +930,9 @@
     <t>Liatris spicata</t>
   </si>
   <si>
+    <t>不需要弯曲，枝干底部的叶片需要做分离，花头各种开放状态都有，按照自然状态即可</t>
+  </si>
+  <si>
     <t>枝黄花</t>
   </si>
   <si>
@@ -943,6 +946,9 @@
   </si>
   <si>
     <t>Polianthes tuberosa</t>
+  </si>
+  <si>
+    <t>不需要弯曲，分支需要做分离，花头各种开放状态都有，按照自然状态即可</t>
   </si>
   <si>
     <t>千屈菜</t>
@@ -3448,8 +3454,8 @@
   <sheetPr/>
   <dimension ref="A1:L267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D77" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -4964,7 +4970,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="10" t="s">
         <v>295</v>
@@ -4975,6 +4981,9 @@
       </c>
       <c r="E88" s="10" t="s">
         <v>297</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4989,7 +4998,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="10" t="s">
         <v>300</v>
@@ -5001,713 +5010,719 @@
       <c r="E90" s="10" t="s">
         <v>302</v>
       </c>
+      <c r="F90" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10" t="s">
         <v>292</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>371</v>
-      </c>
       <c r="E115" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" ht="28.8" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121" ht="28.8" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="E129" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>214</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" ht="17.4" spans="1:5">
       <c r="A142" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5716,17 +5731,17 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10" t="s">
         <v>296</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5739,265 +5754,265 @@
         <v>55</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="10" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="12" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -6006,451 +6021,451 @@
     <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="10" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="12" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="12" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>296</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="10" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10" t="s">
         <v>296</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10" t="s">
         <v>296</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>292</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="E186" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10" t="s">
         <v>247</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="3"/>
       <c r="B189" s="10" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>247</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>245</v>
@@ -6465,174 +6480,174 @@
     <row r="197" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="3"/>
       <c r="B200" s="10" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10" t="s">
         <v>247</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="3"/>
       <c r="B201" s="10" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C201" s="10"/>
       <c r="D201" s="10" t="s">
         <v>266</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="3"/>
       <c r="B202" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="3"/>
       <c r="B208" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="3"/>
       <c r="B209" s="10" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="210" ht="40.5" customHeight="1" spans="1:5">
       <c r="A210" s="14" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
@@ -6640,7 +6655,7 @@
     </row>
     <row r="211" ht="17.4" spans="1:5">
       <c r="A211" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6650,439 +6665,439 @@
     <row r="212" spans="1:5">
       <c r="A212" s="3"/>
       <c r="B212" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="3"/>
       <c r="B213" s="10" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>239</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="3"/>
       <c r="B214" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>239</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="3"/>
       <c r="B216" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="3"/>
       <c r="B217" s="10" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>239</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="3"/>
       <c r="B218" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="3"/>
       <c r="B220" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10" t="s">
         <v>247</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="3"/>
       <c r="B221" s="10" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>247</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="3"/>
       <c r="B222" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="224" ht="28.8" spans="1:5">
       <c r="A224" s="3"/>
       <c r="B224" s="10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="3"/>
       <c r="B225" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="3"/>
       <c r="B226" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="3"/>
       <c r="B228" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="3"/>
       <c r="B229" s="10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C229" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D229" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="D229" s="10" t="s">
-        <v>661</v>
-      </c>
       <c r="E229" s="10" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="3"/>
       <c r="B230" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="10" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="3"/>
       <c r="B232" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="3"/>
       <c r="B233" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="3"/>
       <c r="B234" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="3"/>
       <c r="B236" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="3"/>
       <c r="B237" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="3"/>
       <c r="B238" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="3"/>
       <c r="B240" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="3"/>
       <c r="B241" s="12" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="3"/>
       <c r="B242" s="10" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="243" ht="17.4" spans="1:5">
       <c r="A243" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7091,169 +7106,169 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="3"/>
       <c r="B245" s="10" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="3"/>
       <c r="B246" s="10" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10" t="s">
         <v>301</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="3"/>
       <c r="B248" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="3"/>
       <c r="B249" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="D251" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="C251" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="D251" s="10" t="s">
-        <v>712</v>
-      </c>
       <c r="E251" s="10" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="3"/>
       <c r="B252" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="3"/>
       <c r="B253" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>272</v>
@@ -7262,7 +7277,7 @@
         <v>93</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7281,57 +7296,57 @@
     <row r="257" spans="1:5">
       <c r="A257" s="3"/>
       <c r="B257" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="10" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C259" s="10"/>
       <c r="D259" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="260" ht="28.8" spans="1:5">
       <c r="A260" s="3"/>
       <c r="B260" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="3"/>
       <c r="B261" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>177</v>
@@ -7355,29 +7370,29 @@
     <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="10" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10" t="s">
         <v>97</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="3"/>
       <c r="B264" s="10" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7398,25 +7413,25 @@
     <row r="266" spans="1:5">
       <c r="A266" s="3"/>
       <c r="B266" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -7463,17 +7478,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -8992,689 +9007,689 @@
     <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" ht="28.8" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" ht="28.8" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" ht="17.4" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -9683,16 +9698,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -9704,686 +9719,686 @@
         <v>55</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="E150" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="E184" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>245</v>
@@ -10398,168 +10413,168 @@
     <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="3"/>
       <c r="B200" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="3"/>
       <c r="B201" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="3"/>
       <c r="B202" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" ht="17.4" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -10569,435 +10584,435 @@
     <row r="209" spans="1:5">
       <c r="A209" s="3"/>
       <c r="B209" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="3"/>
       <c r="B210" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="3"/>
       <c r="B212" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="3"/>
       <c r="B213" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="3"/>
       <c r="B214" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="3"/>
       <c r="B216" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="3"/>
       <c r="B217" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="3"/>
       <c r="B218" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="3"/>
       <c r="B220" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="221" ht="28.8" spans="1:5">
       <c r="A221" s="3"/>
       <c r="B221" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="3"/>
       <c r="B222" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="3"/>
       <c r="B224" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="3"/>
       <c r="B225" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="3"/>
       <c r="B226" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="E226" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="3"/>
       <c r="B228" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="3"/>
       <c r="B229" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="3"/>
       <c r="B230" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="3"/>
       <c r="B232" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="3"/>
       <c r="B233" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="3"/>
       <c r="B234" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="3"/>
       <c r="B236" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="3"/>
       <c r="B237" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="3"/>
       <c r="B238" s="7" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="240" ht="17.4" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -11006,168 +11021,168 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="3"/>
       <c r="B242" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="3"/>
       <c r="B244" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="3"/>
       <c r="B245" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="3"/>
       <c r="B246" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="3"/>
       <c r="B248" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="E248" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="3"/>
       <c r="B249" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="3"/>
       <c r="B252" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>272</v>
@@ -11176,7 +11191,7 @@
         <v>93</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -11194,55 +11209,55 @@
     <row r="254" spans="1:5">
       <c r="A254" s="3"/>
       <c r="B254" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="3"/>
       <c r="B256" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="257" ht="28.8" spans="1:5">
       <c r="A257" s="3"/>
       <c r="B257" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>177</v>
@@ -11266,28 +11281,28 @@
     <row r="260" spans="1:5">
       <c r="A260" s="3"/>
       <c r="B260" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="3"/>
       <c r="B261" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -11308,25 +11323,25 @@
     <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="3"/>
       <c r="B264" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
+++ b/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="751">
   <si>
     <t>一、线状花材</t>
   </si>
@@ -3454,8 +3454,8 @@
   <sheetPr/>
   <dimension ref="A1:L267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -5042,7 +5042,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="10" t="s">
         <v>310</v>
@@ -5053,6 +5053,9 @@
       </c>
       <c r="E93" s="10" t="s">
         <v>311</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:5">

--- a/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
+++ b/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
@@ -2280,9 +2280,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2317,37 +2317,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2360,14 +2338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2375,8 +2345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2397,6 +2368,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2405,11 +2390,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2423,7 +2408,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2439,7 +2424,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,7 +2460,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,67 +2610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2544,103 +2634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,17 +2669,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2695,15 +2689,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2726,8 +2711,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2737,6 +2722,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2774,10 +2774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2786,16 +2786,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2804,115 +2804,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3014,6 +3014,16 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3035,7 +3045,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3052,7 +3062,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15405735" y="8263890"/>
+          <a:off x="15405735" y="3459480"/>
           <a:ext cx="243840" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3076,8 +3086,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>499745</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3094,7 +3104,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15514955" y="7970520"/>
+          <a:off x="15514955" y="3459480"/>
           <a:ext cx="999490" cy="1183005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3118,8 +3128,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3136,7 +3146,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16708755" y="8020050"/>
+          <a:off x="16708755" y="3459480"/>
           <a:ext cx="1386840" cy="1043940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3177,7 +3187,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15405735" y="13384530"/>
+          <a:off x="15405735" y="4373880"/>
           <a:ext cx="30480" cy="60960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3451,11 +3461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -3481,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" hidden="1" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3549,7 +3559,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" hidden="1" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -3569,7 +3579,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" hidden="1" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -3589,7 +3599,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" hidden="1" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
@@ -3631,7 +3641,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" hidden="1" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>22</v>
@@ -3673,7 +3683,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" hidden="1" spans="1:12">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>27</v>
@@ -3693,7 +3703,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" hidden="1" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>29</v>
@@ -3735,7 +3745,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" hidden="1" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
         <v>34</v>
@@ -3825,7 +3835,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" hidden="1" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
         <v>49</v>
@@ -3871,7 +3881,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:12">
+    <row r="20" ht="18" hidden="1" customHeight="1" spans="1:12">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>58</v>
@@ -3891,7 +3901,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:12">
+    <row r="21" ht="15" hidden="1" customHeight="1" spans="1:12">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>61</v>
@@ -3913,7 +3923,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" hidden="1" spans="1:12">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>65</v>
@@ -3935,7 +3945,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" hidden="1" spans="1:12">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>69</v>
@@ -3957,7 +3967,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" hidden="1" spans="1:12">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>73</v>
@@ -3979,7 +3989,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" hidden="1" spans="1:12">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>77</v>
@@ -3999,7 +4009,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" hidden="1" spans="1:12">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>79</v>
@@ -4045,7 +4055,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" hidden="1" spans="1:12">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>88</v>
@@ -4067,7 +4077,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" hidden="1" spans="1:12">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>92</v>
@@ -4111,7 +4121,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" hidden="1" spans="1:12">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>100</v>
@@ -4133,7 +4143,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" ht="14.1" customHeight="1" spans="1:12">
+    <row r="32" ht="14.1" hidden="1" customHeight="1" spans="1:12">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
         <v>103</v>
@@ -4175,7 +4185,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" hidden="1" spans="1:12">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>108</v>
@@ -4213,7 +4223,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
         <v>116</v>
@@ -4225,7 +4235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>119</v>
@@ -4253,7 +4263,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" hidden="1" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>126</v>
@@ -4283,7 +4293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" hidden="1" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
         <v>134</v>
@@ -4295,7 +4305,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" hidden="1" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
@@ -4326,7 +4336,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" hidden="1" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
         <v>144</v>
@@ -4338,7 +4348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" hidden="1" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="1" t="s">
         <v>146</v>
@@ -4353,7 +4363,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" hidden="1" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="1" t="s">
         <v>150</v>
@@ -4365,7 +4375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" hidden="1" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
         <v>152</v>
@@ -4377,7 +4387,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
         <v>154</v>
@@ -4392,7 +4402,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" hidden="1" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="1" t="s">
         <v>158</v>
@@ -4420,7 +4430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" hidden="1" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
         <v>165</v>
@@ -4451,7 +4461,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" hidden="1" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="1" t="s">
         <v>172</v>
@@ -4466,7 +4476,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" hidden="1" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="7" t="s">
         <v>175</v>
@@ -4481,7 +4491,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" hidden="1" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="1" t="s">
         <v>179</v>
@@ -4493,7 +4503,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" hidden="1" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="1" t="s">
         <v>182</v>
@@ -4544,7 +4554,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" hidden="1" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="1" t="s">
         <v>194</v>
@@ -4559,7 +4569,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" hidden="1" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="1" t="s">
         <v>197</v>
@@ -4574,7 +4584,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" hidden="1" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
         <v>201</v>
@@ -4589,7 +4599,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" hidden="1" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="1" t="s">
         <v>205</v>
@@ -4604,7 +4614,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" hidden="1" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="1" t="s">
         <v>209</v>
@@ -4616,7 +4626,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" hidden="1" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="1" t="s">
         <v>212</v>
@@ -4631,7 +4641,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" hidden="1" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="1" t="s">
         <v>216</v>
@@ -4643,7 +4653,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" hidden="1" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="1" t="s">
         <v>218</v>
@@ -4655,7 +4665,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" hidden="1" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="1" t="s">
         <v>221</v>
@@ -4667,7 +4677,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" hidden="1" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="1" t="s">
         <v>224</v>
@@ -4679,7 +4689,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" hidden="1" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="1" t="s">
         <v>226</v>
@@ -4691,7 +4701,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" hidden="1" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="1" t="s">
         <v>229</v>
@@ -4724,7 +4734,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" hidden="1" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="1" t="s">
         <v>238</v>
@@ -4736,7 +4746,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" hidden="1" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="1" t="s">
         <v>241</v>
@@ -4751,7 +4761,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" hidden="1" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>244</v>
       </c>
@@ -4768,7 +4778,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" hidden="1" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="1" t="s">
         <v>249</v>
@@ -4783,7 +4793,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" hidden="1" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="1" t="s">
         <v>252</v>
@@ -4798,7 +4808,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" hidden="1" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="1" t="s">
         <v>256</v>
@@ -4813,7 +4823,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" hidden="1" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="1" t="s">
         <v>259</v>
@@ -4857,7 +4867,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" hidden="1" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="1" t="s">
         <v>269</v>
@@ -4887,7 +4897,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" hidden="1" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="1" t="s">
         <v>275</v>
@@ -4922,7 +4932,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" hidden="1" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="1" t="s">
         <v>284</v>
@@ -4986,7 +4996,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" hidden="1" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="1" t="s">
         <v>298</v>
@@ -5014,7 +5024,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" hidden="1" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="1" t="s">
         <v>304</v>
@@ -5071,7 +5081,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" hidden="1" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
         <v>315</v>
@@ -5128,7 +5138,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" hidden="1" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
         <v>328</v>
@@ -5143,7 +5153,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" hidden="1" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
         <v>332</v>
@@ -5158,7 +5168,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" hidden="1" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
         <v>336</v>
@@ -5173,7 +5183,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" hidden="1" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
         <v>340</v>
@@ -5188,7 +5198,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" hidden="1" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="1" t="s">
         <v>343</v>
@@ -5203,7 +5213,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" hidden="1" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
         <v>346</v>
@@ -5244,7 +5254,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" hidden="1" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
         <v>353</v>
@@ -5308,7 +5318,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" hidden="1" spans="1:5">
       <c r="A112" s="3" t="s">
         <v>365</v>
       </c>
@@ -5337,7 +5347,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" hidden="1" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="1" t="s">
         <v>372</v>
@@ -5379,7 +5389,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" hidden="1" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="1" t="s">
         <v>381</v>
@@ -5394,7 +5404,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" ht="28.8" spans="1:5">
+    <row r="118" ht="28.8" hidden="1" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="1" t="s">
         <v>384</v>
@@ -5409,7 +5419,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" hidden="1" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
         <v>387</v>
@@ -5424,7 +5434,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" hidden="1" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="1" t="s">
         <v>390</v>
@@ -5449,7 +5459,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" hidden="1" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="1" t="s">
         <v>394</v>
@@ -5464,7 +5474,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" hidden="1" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="1" t="s">
         <v>397</v>
@@ -5476,7 +5486,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" hidden="1" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="1" t="s">
         <v>400</v>
@@ -5488,7 +5498,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" hidden="1" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="1" t="s">
         <v>402</v>
@@ -5503,7 +5513,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" hidden="1" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="1" t="s">
         <v>406</v>
@@ -5518,7 +5528,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" hidden="1" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="1" t="s">
         <v>410</v>
@@ -5533,7 +5543,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" hidden="1" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="1" t="s">
         <v>413</v>
@@ -5548,7 +5558,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" hidden="1" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="1" t="s">
         <v>417</v>
@@ -5563,7 +5573,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" hidden="1" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="7" t="s">
         <v>420</v>
@@ -5590,7 +5600,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" hidden="1" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
         <v>426</v>
@@ -5605,7 +5615,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" hidden="1" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
         <v>429</v>
@@ -5632,7 +5642,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" hidden="1" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="1" t="s">
         <v>434</v>
@@ -5644,7 +5654,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" hidden="1" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="1" t="s">
         <v>436</v>
@@ -5659,7 +5669,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" hidden="1" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="1" t="s">
         <v>439</v>
@@ -5684,7 +5694,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" hidden="1" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="1" t="s">
         <v>444</v>
@@ -5696,7 +5706,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" hidden="1" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="1" t="s">
         <v>446</v>
@@ -5723,7 +5733,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" ht="17.4" spans="1:5">
+    <row r="142" ht="17.4" hidden="1" spans="1:5">
       <c r="A142" s="2" t="s">
         <v>452</v>
       </c>
@@ -5790,7 +5800,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" hidden="1" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="1" t="s">
         <v>463</v>
@@ -5805,7 +5815,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" hidden="1" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="1" t="s">
         <v>466</v>
@@ -5820,7 +5830,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" hidden="1" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="1" t="s">
         <v>469</v>
@@ -6064,7 +6074,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" hidden="1" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="1" t="s">
         <v>512</v>
@@ -6094,7 +6104,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" hidden="1" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="1" t="s">
         <v>518</v>
@@ -6193,7 +6203,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" hidden="1" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="1" t="s">
         <v>537</v>
@@ -6205,7 +6215,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" hidden="1" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="1" t="s">
         <v>539</v>
@@ -6288,7 +6298,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" hidden="1" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="1" t="s">
         <v>553</v>
@@ -6313,7 +6323,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" hidden="1" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="1" t="s">
         <v>556</v>
@@ -6325,7 +6335,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" hidden="1" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="1" t="s">
         <v>559</v>
@@ -6337,7 +6347,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" hidden="1" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="1" t="s">
         <v>561</v>
@@ -6405,7 +6415,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" hidden="1" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="1" t="s">
         <v>574</v>
@@ -6435,7 +6445,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" hidden="1" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="1" t="s">
         <v>580</v>
@@ -6450,7 +6460,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" hidden="1" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="1" t="s">
         <v>583</v>
@@ -6465,7 +6475,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" hidden="1" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="1" t="s">
         <v>586</v>
@@ -6480,7 +6490,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" hidden="1" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="1" t="s">
         <v>587</v>
@@ -6492,7 +6502,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" hidden="1" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="1" t="s">
         <v>589</v>
@@ -6504,7 +6514,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" hidden="1" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="1" t="s">
         <v>591</v>
@@ -6560,7 +6570,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" hidden="1" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="1" t="s">
         <v>601</v>
@@ -6572,7 +6582,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" hidden="1" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="1" t="s">
         <v>603</v>
@@ -6584,7 +6594,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" hidden="1" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="1" t="s">
         <v>605</v>
@@ -6596,7 +6606,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" hidden="1" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="1" t="s">
         <v>608</v>
@@ -6608,7 +6618,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" hidden="1" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="1" t="s">
         <v>610</v>
@@ -6620,7 +6630,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" hidden="1" spans="1:5">
       <c r="A208" s="3"/>
       <c r="B208" s="1" t="s">
         <v>612</v>
@@ -6656,7 +6666,7 @@
       <c r="D210" s="10"/>
       <c r="E210" s="10"/>
     </row>
-    <row r="211" ht="17.4" spans="1:5">
+    <row r="211" ht="17.4" hidden="1" spans="1:5">
       <c r="A211" s="2" t="s">
         <v>619</v>
       </c>
@@ -6665,7 +6675,7 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" hidden="1" spans="1:5">
       <c r="A212" s="3"/>
       <c r="B212" s="1" t="s">
         <v>620</v>
@@ -6710,7 +6720,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" hidden="1" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="1" t="s">
         <v>630</v>
@@ -6722,7 +6732,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" hidden="1" spans="1:5">
       <c r="A216" s="3"/>
       <c r="B216" s="1" t="s">
         <v>632</v>
@@ -6752,7 +6762,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" hidden="1" spans="1:5">
       <c r="A218" s="3"/>
       <c r="B218" s="1" t="s">
         <v>638</v>
@@ -6764,7 +6774,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" hidden="1" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="1" t="s">
         <v>640</v>
@@ -6804,7 +6814,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" hidden="1" spans="1:5">
       <c r="A222" s="3"/>
       <c r="B222" s="1" t="s">
         <v>644</v>
@@ -6819,7 +6829,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" hidden="1" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="1" t="s">
         <v>647</v>
@@ -6861,7 +6871,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" hidden="1" spans="1:5">
       <c r="A226" s="3"/>
       <c r="B226" s="1" t="s">
         <v>656</v>
@@ -6873,7 +6883,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" hidden="1" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="1" t="s">
         <v>658</v>
@@ -6888,7 +6898,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" hidden="1" spans="1:5">
       <c r="A228" s="3"/>
       <c r="B228" s="1" t="s">
         <v>661</v>
@@ -6918,7 +6928,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" hidden="1" spans="1:5">
       <c r="A230" s="3"/>
       <c r="B230" s="1" t="s">
         <v>667</v>
@@ -6948,7 +6958,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" hidden="1" spans="1:5">
       <c r="A232" s="3"/>
       <c r="B232" s="1" t="s">
         <v>673</v>
@@ -6960,7 +6970,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" hidden="1" spans="1:5">
       <c r="A233" s="3"/>
       <c r="B233" s="1" t="s">
         <v>675</v>
@@ -6975,7 +6985,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" hidden="1" spans="1:5">
       <c r="A234" s="3"/>
       <c r="B234" s="1" t="s">
         <v>678</v>
@@ -6987,7 +6997,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" hidden="1" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="1" t="s">
         <v>680</v>
@@ -7002,7 +7012,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" hidden="1" spans="1:5">
       <c r="A236" s="3"/>
       <c r="B236" s="1" t="s">
         <v>683</v>
@@ -7017,7 +7027,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" hidden="1" spans="1:5">
       <c r="A237" s="3"/>
       <c r="B237" s="1" t="s">
         <v>686</v>
@@ -7029,7 +7039,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" hidden="1" spans="1:5">
       <c r="A238" s="3"/>
       <c r="B238" s="1" t="s">
         <v>688</v>
@@ -7044,7 +7054,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" hidden="1" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="1" t="s">
         <v>690</v>
@@ -7098,7 +7108,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="243" ht="17.4" spans="1:5">
+    <row r="243" ht="17.4" hidden="1" spans="1:5">
       <c r="A243" s="2" t="s">
         <v>698</v>
       </c>
@@ -7107,7 +7117,7 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" hidden="1" spans="1:5">
       <c r="A244" s="3" t="s">
         <v>699</v>
       </c>
@@ -7194,7 +7204,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" hidden="1" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="1" t="s">
         <v>712</v>
@@ -7239,7 +7249,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" hidden="1" spans="1:5">
       <c r="A253" s="3"/>
       <c r="B253" s="1" t="s">
         <v>722</v>
@@ -7251,7 +7261,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" hidden="1" spans="1:5">
       <c r="A254" s="3" t="s">
         <v>570</v>
       </c>
@@ -7268,7 +7278,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" hidden="1" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="1" t="s">
         <v>727</v>
@@ -7309,7 +7319,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" hidden="1" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="1" t="s">
         <v>406</v>
@@ -7334,7 +7344,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="260" ht="28.8" spans="1:5">
+    <row r="260" ht="28.8" hidden="1" spans="1:5">
       <c r="A260" s="3"/>
       <c r="B260" s="1" t="s">
         <v>733</v>
@@ -7346,7 +7356,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" hidden="1" spans="1:5">
       <c r="A261" s="3"/>
       <c r="B261" s="1" t="s">
         <v>736</v>
@@ -7358,7 +7368,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" hidden="1" spans="1:5">
       <c r="A262" s="3"/>
       <c r="B262" s="1" t="s">
         <v>179</v>
@@ -7413,7 +7423,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" hidden="1" spans="1:5">
       <c r="A266" s="3"/>
       <c r="B266" s="1" t="s">
         <v>741</v>
@@ -7425,7 +7435,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" hidden="1" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="1" t="s">
         <v>743</v>
@@ -7439,6 +7449,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E267">
+    <filterColumn colId="4">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="16">

--- a/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
+++ b/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="18468" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2280,9 +2280,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2310,22 +2310,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2338,23 +2344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2375,18 +2367,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2399,10 +2392,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2414,9 +2422,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,13 +2444,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -2455,6 +2455,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,7 +2484,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,7 +2520,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,7 +2574,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,49 +2622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2562,85 +2640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2665,15 +2665,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2710,9 +2701,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2722,6 +2724,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2737,17 +2748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2774,10 +2774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2786,16 +2786,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2807,10 +2807,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2822,97 +2825,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3019,7 +3019,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3062,7 +3062,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15405735" y="3459480"/>
+          <a:off x="16595090" y="3459480"/>
           <a:ext cx="243840" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3104,7 +3104,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15514955" y="3459480"/>
+          <a:off x="16704310" y="3459480"/>
           <a:ext cx="999490" cy="1183005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3146,7 +3146,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16708755" y="3459480"/>
+          <a:off x="17898110" y="3459480"/>
           <a:ext cx="1386840" cy="1043940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3187,7 +3187,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15405735" y="4373880"/>
+          <a:off x="16595090" y="4373880"/>
           <a:ext cx="30480" cy="60960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3464,13 +3464,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="1"/>
+    <col min="1" max="1" width="26.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.6296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6296296296296" style="1" customWidth="1"/>

--- a/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
+++ b/插花/插花艺术基础（花材名录黄色为需要做的花材模型）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2281,8 +2281,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2310,6 +2310,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2323,30 +2330,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2357,6 +2358,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2375,27 +2384,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2407,13 +2400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2422,8 +2408,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,9 +2424,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,7 +2460,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,19 +2550,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,49 +2586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,19 +2598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2574,25 +2610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2604,25 +2622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,12 +2641,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2684,21 +2684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2728,11 +2713,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2766,6 +2757,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2774,10 +2774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2786,16 +2786,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2804,115 +2804,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3464,8 +3464,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
